--- a/record/Students_list/2020_숙명여고_1학년_12반.xlsx
+++ b/record/Students_list/2020_숙명여고_1학년_12반.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\School_life_record_project\Students_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\school_life_record_project_2\record\Students_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05011924-7768-4DFB-A455-E69238606F1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B2F384-46F8-49CC-85B3-7ECF2141BA45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5430" windowWidth="24240" windowHeight="13290" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5430" windowWidth="24240" windowHeight="13290" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -46,22 +46,11 @@
     <sheet name="Sheet" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="348">
   <si>
     <t>학  번</t>
   </si>
@@ -999,10 +988,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문학적 소질이 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>호불호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1175,10 +1160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공부에는 크게 관심이 없어보임.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>근성이 있어보임.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1227,10 +1208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>태도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1400,6 +1377,38 @@
   </si>
   <si>
     <t>환경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐트러짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문학</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1846,7 +1855,7 @@
         <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
         <v>177</v>
@@ -1857,10 +1866,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
         <v>178</v>
@@ -1871,20 +1880,20 @@
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1894,12 +1903,12 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1961,7 @@
         <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
         <v>147</v>
@@ -1988,7 +1997,7 @@
         <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,7 +2017,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2063,7 +2072,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2074,10 +2083,10 @@
         <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2096,7 +2105,7 @@
         <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2114,17 +2123,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2185,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -2190,7 +2199,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E3" t="s">
         <v>86</v>
@@ -2201,7 +2210,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
         <v>227</v>
@@ -2293,7 +2302,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
         <v>156</v>
@@ -2309,7 +2318,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>158</v>
@@ -2317,18 +2326,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2336,7 +2345,7 @@
         <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2421,7 +2430,7 @@
         <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
         <v>165</v>
@@ -2562,12 +2571,12 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2584,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2625,7 +2634,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="E2" t="s">
         <v>49</v>
@@ -2639,7 +2648,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -2653,7 +2662,7 @@
         <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2661,13 +2670,16 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
+      <c r="D6" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
@@ -2676,17 +2688,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2741,15 +2763,15 @@
         <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2757,7 +2779,7 @@
         <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2830,7 +2852,7 @@
         <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2841,7 +2863,7 @@
         <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2849,7 +2871,7 @@
         <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2925,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2955,7 +2977,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -2966,7 +2988,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -2985,7 +3007,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2993,7 +3015,7 @@
         <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3001,7 +3023,7 @@
         <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3009,33 +3031,33 @@
         <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3121,7 +3143,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3340,7 @@
         <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
         <v>108</v>
@@ -3346,7 +3368,7 @@
         <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
         <v>116</v>
@@ -3357,7 +3379,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E6" t="s">
         <v>117</v>
@@ -3365,10 +3387,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E7" t="s">
         <v>118</v>
@@ -3376,10 +3398,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3521,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
         <v>232</v>
@@ -3507,7 +3529,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
         <v>233</v>
@@ -3515,7 +3537,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
         <v>239</v>
@@ -3523,25 +3545,25 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3678,7 +3700,7 @@
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
         <v>121</v>
@@ -3697,7 +3719,7 @@
         <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3725,37 +3747,37 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3807,7 +3829,7 @@
         <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3822,7 +3844,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3832,7 +3854,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3884,7 +3906,7 @@
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
         <v>127</v>
@@ -3922,7 +3944,7 @@
         <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4056,21 +4078,21 @@
         <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4078,7 +4100,7 @@
         <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4091,7 +4113,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4106,12 +4128,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4126,7 +4148,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4193,7 +4215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4298,7 +4320,7 @@
         <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4306,7 +4328,7 @@
         <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4314,7 +4336,7 @@
         <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4347,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4366,7 +4388,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
         <v>186</v>
@@ -4377,7 +4399,7 @@
         <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
         <v>206</v>
@@ -4387,11 +4409,8 @@
       <c r="C4" t="s">
         <v>196</v>
       </c>
-      <c r="D4" t="s">
-        <v>286</v>
-      </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4416,12 +4435,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4429,14 +4454,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="35" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4468,10 +4494,10 @@
         <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4479,7 +4505,7 @@
         <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4487,17 +4513,20 @@
         <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="D5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4603,7 @@
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4582,7 +4611,7 @@
         <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4685,7 +4714,7 @@
         <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
         <v>55</v>
@@ -4699,7 +4728,7 @@
         <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -4710,7 +4739,7 @@
         <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
         <v>59</v>
@@ -4718,7 +4747,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
         <v>61</v>
@@ -4804,15 +4833,15 @@
         <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4822,7 +4851,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/record/Students_list/2020_숙명여고_1학년_12반.xlsx
+++ b/record/Students_list/2020_숙명여고_1학년_12반.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\school_life_record_project_2\record\Students_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B2F384-46F8-49CC-85B3-7ECF2141BA45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1E5ECB-2726-4D49-B7F9-E19A00522F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5430" windowWidth="24240" windowHeight="13290" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27735" yWindow="6195" windowWidth="21600" windowHeight="11460" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="356">
   <si>
     <t>학  번</t>
   </si>
@@ -1409,6 +1409,38 @@
   </si>
   <si>
     <t>문학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호기심이 많음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아하는 분야가 많음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실천이 좀 부족함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙적인 생활이 아쉬움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자존감</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2030,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2595,7 +2627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4539,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B4:B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4610,6 +4642,9 @@
       <c r="C5" t="s">
         <v>96</v>
       </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
       <c r="E5" t="s">
         <v>256</v>
       </c>
@@ -4650,8 +4685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4741,6 +4776,9 @@
       <c r="C6" t="s">
         <v>313</v>
       </c>
+      <c r="D6" t="s">
+        <v>348</v>
+      </c>
       <c r="E6" t="s">
         <v>59</v>
       </c>
@@ -4748,6 +4786,9 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>314</v>
+      </c>
+      <c r="D7" t="s">
+        <v>349</v>
       </c>
       <c r="E7" t="s">
         <v>61</v>
@@ -4762,10 +4803,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4816,6 +4857,9 @@
       <c r="C3" t="s">
         <v>111</v>
       </c>
+      <c r="D3" t="s">
+        <v>351</v>
+      </c>
       <c r="E3" t="s">
         <v>112</v>
       </c>
@@ -4824,6 +4868,9 @@
       <c r="C4" t="s">
         <v>114</v>
       </c>
+      <c r="D4" t="s">
+        <v>352</v>
+      </c>
       <c r="E4" t="s">
         <v>113</v>
       </c>
@@ -4832,6 +4879,9 @@
       <c r="C5" t="s">
         <v>196</v>
       </c>
+      <c r="D5" t="s">
+        <v>353</v>
+      </c>
       <c r="E5" t="s">
         <v>261</v>
       </c>
@@ -4840,6 +4890,9 @@
       <c r="C6" t="s">
         <v>254</v>
       </c>
+      <c r="D6" t="s">
+        <v>354</v>
+      </c>
       <c r="E6" t="s">
         <v>263</v>
       </c>
@@ -4852,6 +4905,21 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/record/Students_list/2020_숙명여고_1학년_12반.xlsx
+++ b/record/Students_list/2020_숙명여고_1학년_12반.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\school_life_record_project_2\record\Students_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1E5ECB-2726-4D49-B7F9-E19A00522F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F815D0D-FDD8-4A76-8B5F-1846C9C90CA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27735" yWindow="6195" windowWidth="21600" windowHeight="11460" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11460" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -2062,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2178,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
